--- a/public/temp/HopperReport.xlsx
+++ b/public/temp/HopperReport.xlsx
@@ -127,49 +127,37 @@
     <t>กะ1 :  _________________</t>
   </si>
   <si>
-    <t xml:space="preserve">28/11/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KF BOI3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23E2112801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-11-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:49:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สมพงษ์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:56:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:27:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:37:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:16:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. : ตั้งแต่ 15:18:00 ถึง 15:47:00 รวม 29 นาที</t>
+    <t xml:space="preserve">28/01/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEMP PI5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24EX1012801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-01-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:49:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:46:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santhanaphol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. : ตั้งแต่ 17:50:00 ถึง 18:00:00 รวม 10 นาที</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">สาเหตุ: เครื่อง Dry เสีย</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. : ตั้งแต่ 16:32:00 ถึง 17:00:00 รวม 28 นาที</t>
+    <t xml:space="preserve">สาเหตุ: รอทำความสะอาด สกรูฟีด</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. : ตั้งแต่ 18:50:00 ถึง 19:08:00 รวม 18 นาที</t>
   </si>
   <si>
     <t xml:space="preserve">สาเหตุ: อื่นๆ ของหาย</t>
@@ -187,13 +175,13 @@
     <t xml:space="preserve">5. : ตั้งแต่ ______________ ถึง ______________ รวม __________ นาที</t>
   </si>
   <si>
-    <t xml:space="preserve">กะ1 : เฉลิมศักดิ์  ปฏิตัง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">กะ2 : เฉลิมศักดิ์  ปฏิตัง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">กะ3 : ณภัทร   ตุ่นคุ้ย</t>
+    <t xml:space="preserve">กะ1 : Santhanaphol Kham-Um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ2 : สายันต์ ไชยเมืองเลน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ3 : -</t>
   </si>
   <si>
     <t xml:space="preserve">กะ1 : -</t>
@@ -202,16 +190,10 @@
     <t xml:space="preserve">วันที่ : -</t>
   </si>
   <si>
-    <t xml:space="preserve">กะ1 : เอกชัย ทัศนาลัย</t>
-  </si>
-  <si>
-    <t xml:space="preserve">กะ2 : เอกชัย ทัศนาลัย</t>
-  </si>
-  <si>
-    <t xml:space="preserve">กะ3 : -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">กะ1 : สมศักดิ์ วงษ์เพ็ง</t>
+    <t xml:space="preserve">กะ1 : Somruthai kitja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กะ2 : วิวัฒน์ รองชัยภูมิ</t>
   </si>
   <si>
     <t xml:space="preserve">วันที่ : 24/01/2024</t>
@@ -1858,7 +1840,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="9">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s" s="10">
         <v>36</v>
@@ -1872,27 +1854,13 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s" s="13">
-        <v>33</v>
-      </c>
-      <c r="B8" s="14">
-        <v>2</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="14">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s" s="14">
-        <v>38</v>
-      </c>
-      <c r="F8" s="15">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s" s="16">
-        <v>36</v>
-      </c>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
       <c r="J8" s="14"/>
@@ -1902,27 +1870,13 @@
       <c r="N8" s="16"/>
     </row>
     <row r="9" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s" s="13">
-        <v>33</v>
-      </c>
-      <c r="B9" s="8">
-        <v>3</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="14">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s" s="14">
-        <v>40</v>
-      </c>
-      <c r="F9" s="15">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s" s="16">
-        <v>36</v>
-      </c>
+      <c r="A9" s="13"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
       <c r="J9" s="14"/>
@@ -2350,25 +2304,25 @@
         <v>14</v>
       </c>
       <c r="B36" t="s" s="39">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E36" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H36" t="s" s="19">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
@@ -2380,25 +2334,25 @@
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="19"/>
       <c r="B37" t="s" s="39">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E37" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H37" t="s" s="19">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
@@ -2410,25 +2364,25 @@
     <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="19"/>
       <c r="B38" t="s" s="39">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H38" t="s" s="19">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
@@ -2440,25 +2394,25 @@
     <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="19"/>
       <c r="B39" t="s" s="39">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E39" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H39" t="s" s="19">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
@@ -2470,25 +2424,25 @@
     <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="19"/>
       <c r="B40" t="s" s="39">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E40" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s" s="39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H40" t="s" s="19">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
@@ -2519,37 +2473,37 @@
       </c>
       <c r="B42" s="24"/>
       <c r="C42" t="s" s="40">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s" s="40">
+        <v>38</v>
+      </c>
+      <c r="E42" t="s" s="40">
+        <v>38</v>
+      </c>
+      <c r="F42" t="s" s="40">
+        <v>47</v>
+      </c>
+      <c r="G42" t="s" s="40">
+        <v>38</v>
+      </c>
+      <c r="H42" t="s" s="40">
+        <v>48</v>
+      </c>
+      <c r="I42" t="s" s="40">
+        <v>38</v>
+      </c>
+      <c r="J42" t="s" s="40">
+        <v>38</v>
+      </c>
+      <c r="K42" t="s" s="40">
+        <v>49</v>
+      </c>
+      <c r="L42" t="s" s="40">
+        <v>38</v>
+      </c>
+      <c r="M42" t="s" s="40">
         <v>50</v>
-      </c>
-      <c r="D42" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="E42" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="F42" t="s" s="40">
-        <v>51</v>
-      </c>
-      <c r="G42" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="H42" t="s" s="40">
-        <v>52</v>
-      </c>
-      <c r="I42" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="J42" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="K42" t="s" s="40">
-        <v>53</v>
-      </c>
-      <c r="L42" t="s" s="40">
-        <v>42</v>
-      </c>
-      <c r="M42" t="s" s="40">
-        <v>54</v>
       </c>
       <c r="N42" s="40"/>
       <c r="O42" s="4"/>
@@ -2560,37 +2514,37 @@
       </c>
       <c r="B43" s="24"/>
       <c r="C43" t="s" s="40">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s" s="40">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E43" t="s" s="40">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s" s="40">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s" s="40">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s" s="40">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s" s="40">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J43" t="s" s="40">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K43" t="s" s="40">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L43" t="s" s="40">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M43" t="s" s="40">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N43" s="40"/>
       <c r="O43" s="3"/>
